--- a/doc/ue_slate_hittestgrid.xlsx
+++ b/doc/ue_slate_hittestgrid.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343F233-88CF-43D0-B2EB-E89E0D3AC1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBFFA78-1478-420A-9B18-FAFB932157EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="初始流程" sheetId="4" r:id="rId2"/>
+    <sheet name="加入Widget" sheetId="5" r:id="rId3"/>
+    <sheet name="查找实现" sheetId="6" r:id="rId4"/>
+    <sheet name="SInvalidationPanel和SRetainerWid" sheetId="2" r:id="rId5"/>
+    <sheet name="优先级" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="181">
   <si>
     <t>尤其是鼠标按下的时候，到底按下的点都在那些Widget范围内的计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +164,453 @@
   </si>
   <si>
     <t>！！！内部使用if (RotatedRect.IsUnderLocation(Point))判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这两种控件，有自己的专用的HittestGrid，然后添加到父SWindow的HittestGrid里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SWindow::PaintWindow( double CurrentTime, float DeltaTime, FSlateWindowElementList&amp; OutDrawElements, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled )</t>
+  </si>
+  <si>
+    <t>从Swindow开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool HittestCleared = HittestGrid-&gt;SetHittestArea(GetPositionInScreen(), GetViewportSize());</t>
+  </si>
+  <si>
+    <t>FPaintArgs PaintArgs(nullptr, GetHittestGrid(), GetPositionInScreen(), CurrentTime, DeltaTime);</t>
+  </si>
+  <si>
+    <t>FSlateInvalidationContext Context(OutDrawElements, InWidgetStyle);</t>
+  </si>
+  <si>
+    <t>Context.bParentEnabled = bParentEnabled;</t>
+  </si>
+  <si>
+    <t>// Fast path at the window level should only be enabled if global invalidation is allowed</t>
+  </si>
+  <si>
+    <t>Context.bAllowFastPathUpdate = bAllowFastUpdate &amp;&amp; GSlateEnableGlobalInvalidation;</t>
+  </si>
+  <si>
+    <t>Context.LayoutScaleMultiplier = FSlateApplicationBase::Get().GetApplicationScale() * GetDPIScaleFactor();</t>
+  </si>
+  <si>
+    <t>Context.PaintArgs = &amp;PaintArgs;</t>
+  </si>
+  <si>
+    <t>Context.IncomingLayerId = 0;</t>
+  </si>
+  <si>
+    <t>Context.CullingRect = GetClippingRectangleInWindow();</t>
+  </si>
+  <si>
+    <t>// Always set the window geometry and visibility</t>
+  </si>
+  <si>
+    <t>PersistentState.AllottedGeometry = GetWindowGeometryInWindow();</t>
+  </si>
+  <si>
+    <t>PersistentState.CullingBounds = GetClippingRectangleInWindow();</t>
+  </si>
+  <si>
+    <t>if (!Visibility.IsBound())</t>
+  </si>
+  <si>
+    <t>SetVisibility(GetWindowVisibility());</t>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult Result = PaintInvalidationRoot(Context);</t>
+  </si>
+  <si>
+    <t>设置区域范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInit(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>const int32 rv1 = PreInitPreStartupScreen(CmdLine);</t>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("PlayFirstPreLoadScreen - FPreLoadScreenManager::Get()-&gt;Initialize");</t>
+  </si>
+  <si>
+    <t>// initialize and present custom splash screen</t>
+  </si>
+  <si>
+    <t>FPreLoadScreenManager::Get()-&gt;Initialize(SlateRendererSharedRef.Get());</t>
+  </si>
+  <si>
+    <t>void FPreLoadScreenManager::Initialize(FSlateRenderer&amp; InSlateRenderer)</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;SWindow&gt; GameWindow = (GameEngine &amp;&amp; GameEngine-&gt;GameViewportWindow.IsValid()) ? GameEngine-&gt;GameViewportWindow.Pin().ToSharedRef() : UGameEngine::CreateGameWindow();</t>
+  </si>
+  <si>
+    <t>创建GameWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Create内部，会吧自己添加到顶层的Window列表中，这样子Slate才能遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSharedRef&lt;SWindow&gt; UGameEngine::CreateGameWindow()</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().AddWindow( Window, bShowImmediately );</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;SWindow&gt; FSlateApplication::AddWindow( TSharedRef&lt;SWindow&gt; InSlateWindow, const bool bShowImmediately )</t>
+  </si>
+  <si>
+    <t>FSlateWindowHelper::ArrangeWindowToFront(SlateWindows, InSlateWindow);</t>
+  </si>
+  <si>
+    <t>加入到SlateWindows列表里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tick的时候遍历SlateWindows然后调用Paint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集过程，也只有子节点的才会进行这方面处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SCanvas::OnPaint( const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled ) const</t>
+  </si>
+  <si>
+    <t>FArrangedChildren ArrangedChildren(EVisibility::Visible);</t>
+  </si>
+  <si>
+    <t>this-&gt;ArrangeChildren(AllottedGeometry, ArrangedChildren);</t>
+  </si>
+  <si>
+    <t>收集过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void SWidget::ArrangeChildren(const FGeometry&amp; AllottedGeometry, FArrangedChildren&amp; ArrangedChildren) const</t>
+  </si>
+  <si>
+    <t>OnArrangeChildren(AllottedGeometry, ArrangedChildren);</t>
+  </si>
+  <si>
+    <t>void OnArrangeChildren( const FGeometry&amp; AllottedGeometry, FArrangedChildren&amp; ArrangedChildren ) const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个控件自己实现，主要就是收集自己的子节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SWidget::Paint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled) const</t>
+  </si>
+  <si>
+    <t>if (bOutgoingHittestability)</t>
+  </si>
+  <si>
+    <t>Args.GetHittestGrid().AddWidget(MutableThis, 0, LayerId, FastPathProxyHandle.GetWidgetSortOrder());</t>
+  </si>
+  <si>
+    <t>添加自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集到的节点，挨个进行Paint调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FHittestGrid::AddWidget(const TSharedRef&lt;SWidget&gt;&amp; InWidget, int32 InBatchPriorityGroup, int32 InLayerId, FSlateInvalidationWidgetSortOrder InSecondarySort)</t>
+  </si>
+  <si>
+    <t>添加到HittestGrid的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!InWidget-&gt;GetVisibility().IsHitTestVisible())</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>自己如果不影响这个输入事件，则过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool IsHitTestVisible( ) const</t>
+  </si>
+  <si>
+    <t>return 0 != (Value &amp; VISPRIVATE_SelfHitTestVisible);</t>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Track the widget and identify it's Widget Index</t>
+  </si>
+  <si>
+    <t>FGeometry GridSpaceGeometry = InWidget-&gt;GetPaintSpaceGeometry();</t>
+  </si>
+  <si>
+    <t>GridSpaceGeometry.AppendTransform(FSlateLayoutTransform(-GridWindowOrigin));</t>
+  </si>
+  <si>
+    <t>// Currently using grid offset because the grid covers all desktop space.</t>
+  </si>
+  <si>
+    <t>const FSlateRect BoundingRect = GridSpaceGeometry.GetRenderBoundingRect();</t>
+  </si>
+  <si>
+    <t>// Starting and ending cells covered by this widget.</t>
+  </si>
+  <si>
+    <t>const FIntPoint UpperLeftCell = GetCellCoordinate(BoundingRect.GetTopLeft());</t>
+  </si>
+  <si>
+    <t>const FIntPoint LowerRightCell = GetCellCoordinate(BoundingRect.GetBottomRight());</t>
+  </si>
+  <si>
+    <t>const int64 PrimarySort = (((int64)InBatchPriorityGroup &lt;&lt; 32) | InLayerId);</t>
+  </si>
+  <si>
+    <t>计算自己所属的CELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIntPoint FHittestGrid::GetCellCoordinate(FVector2D Position) const</t>
+  </si>
+  <si>
+    <t>return FIntPoint(</t>
+  </si>
+  <si>
+    <t>FMath::Min(FMath::Max(FMath::FloorToInt(Position.X / CellSize.X), 0), NumCells.X - 1),</t>
+  </si>
+  <si>
+    <t>FMath::Min(FMath::Max(FMath::FloorToInt(Position.Y / CellSize.Y), 0), NumCells.Y - 1));</t>
+  </si>
+  <si>
+    <t>const FVector2D CellSize(128.0f, 128.0f);</t>
+  </si>
+  <si>
+    <t>直接取余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bAddWidget)</t>
+  </si>
+  <si>
+    <t>int32&amp; WidgetIndex = WidgetMap.Add(&amp;*InWidget);</t>
+  </si>
+  <si>
+    <t>WidgetIndex = WidgetArray.Emplace(InWidget, UpperLeftCell, LowerRightCell, PrimarySort, InSecondarySort, CurrentUserIndex);</t>
+  </si>
+  <si>
+    <t>for (int32 XIndex = UpperLeftCell.X; XIndex &lt;= LowerRightCell.X; ++XIndex)</t>
+  </si>
+  <si>
+    <t>for (int32 YIndex = UpperLeftCell.Y; YIndex &lt;= LowerRightCell.Y; ++YIndex)</t>
+  </si>
+  <si>
+    <t>if (IsValidCellCoord(XIndex, YIndex))</t>
+  </si>
+  <si>
+    <t>CellAt(XIndex, YIndex).AddIndex(WidgetIndex);</t>
+  </si>
+  <si>
+    <t>所有的CELL都加入自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SRetainerWidget::OnPaint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled) const</t>
+  </si>
+  <si>
+    <t>const bool bHittestCleared = HittestGrid-&gt;SetHittestArea(Args.RootGrid.GetGridOrigin(), Args.RootGrid.GetGridSize(), Args.RootGrid.GetGridWindowOrigin());</t>
+  </si>
+  <si>
+    <t>和Swindow的类似，设置自己的HittestGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Copy hit test grid settings from the root</t>
+  </si>
+  <si>
+    <t>if (bHittestCleared)</t>
+  </si>
+  <si>
+    <t>MutableThis-&gt;RequestRender();</t>
+  </si>
+  <si>
+    <t>HittestGrid-&gt;SetOwner(this);</t>
+  </si>
+  <si>
+    <t>HittestGrid-&gt;SetCullingRect(MyCullingRect);</t>
+  </si>
+  <si>
+    <t>FPaintArgs NewArgs = Args.WithNewHitTestGrid(HittestGrid.Get());</t>
+  </si>
+  <si>
+    <t>// Copy the current user index into the new grid since nested hittest grids should inherit their parents user id</t>
+  </si>
+  <si>
+    <t>NewArgs.GetHittestGrid().SetUserIndex(Args.RootGrid.GetUserIndex());</t>
+  </si>
+  <si>
+    <t>Context.bAllowFastPathUpdate = true;</t>
+  </si>
+  <si>
+    <t>Context.LayoutScaleMultiplier = GetPrepassLayoutScaleMultiplier();</t>
+  </si>
+  <si>
+    <t>Context.PaintArgs = &amp;NewArgs;</t>
+  </si>
+  <si>
+    <t>Context.IncomingLayerId = LayerId;</t>
+  </si>
+  <si>
+    <t>Context.CullingRect = MyCullingRect;</t>
+  </si>
+  <si>
+    <t>EPaintRetainedContentResult PaintResult = MutableThis-&gt;PaintRetainedContentImpl(Context, AllottedGeometry);</t>
+  </si>
+  <si>
+    <t>就等于自己的字节点，全部加入到自己的HittestGrid里面，而不是全局的Swindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCollapsedWidgets(WidgetIndexes, Params.CellCoord.X, Params.CellCoord.Y);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FWidgetAndPointer&gt; FHittestGrid::GetBubblePath(FVector2D DesktopSpaceCoordinate, float CursorRadius, bool bIgnoreEnabledStatus, int32 UserIndex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FVector2D CursorPositionInGrid = DesktopSpaceCoordinate - GridOrigin;</t>
+  </si>
+  <si>
+    <t>计算自己属于那个CELL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FGridTestingParams TestingParams;</t>
+  </si>
+  <si>
+    <t>TestingParams.CursorPositionInGrid = CursorPositionInGrid;</t>
+  </si>
+  <si>
+    <t>TestingParams.CellCoord = GetCellCoordinate(CursorPositionInGrid);</t>
+  </si>
+  <si>
+    <t>TestingParams.Radius = 0.0f;</t>
+  </si>
+  <si>
+    <t>TestingParams.bTestWidgetIsInteractive = false;</t>
+  </si>
+  <si>
+    <t>// First add the exact point test results</t>
+  </si>
+  <si>
+    <t>获取对应CELL中的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHittestGrid::FIndexAndDistance FHittestGrid::GetHitIndexFromCellIndex(const FGridTestingParams&amp; Params) const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Get the cell and sort it </t>
+  </si>
+  <si>
+    <t>获取所有的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历，挨个判断是否在对应的区域内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FHittestGrid::GetCollapsedWidgets(FCollapsedWidgetsArray&amp; OutResult, const int32 X, const int32 Y) const</t>
+  </si>
+  <si>
+    <t>FCollapsedHittestGridArray AllHitTestGrids;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GetCollapsedHittestGrid(AllHitTestGrids);</t>
+  </si>
+  <si>
+    <t>首先获取所有的Grid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> for (const FHittestGrid* HittestGrid : AllHitTestGrids)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> const TArray&lt;int32&gt;&amp; WidgetsIndexes = HittestGrid-&gt;CellAt(X, Y).GetWidgetIndexes();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for (int32 WidgetIndex : WidgetsIndexes)</t>
+  </si>
+  <si>
+    <t>#if UE_VERIFY_WIDGET_VALIDITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ensureAlways(HittestGrid-&gt;WidgetArray.IsValidIndex(WidgetIndex));</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OutResult.Emplace(HittestGrid, WidgetIndex);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OutResult.StableSort([](const FWidgetIndex&amp; A, const FWidgetIndex&amp; B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> const FWidgetData&amp; WidgetDataA = A.GetWidgetData();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> const FWidgetData&amp; WidgetDataB = B.GetWidgetData();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> return WidgetDataA.PrimarySort &lt; WidgetDataB.PrimarySort || (WidgetDataA.PrimarySort == WidgetDataB.PrimarySort &amp;&amp; WidgetDataA.SecondarySort &lt; WidgetDataB.SecondarySort);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> });</t>
+  </si>
+  <si>
+    <t>开始排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挨个遍历Grid，找到对应的CELL的Widget信息（对应的就是INDEX）；收集之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swindow调用开始，设置LayerID=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次子节点都++</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +983,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -560,7 +1012,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
@@ -802,6 +1254,983 @@
     <row r="71" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6027452-A84D-4796-B340-EC31F4F255E9}">
+  <dimension ref="A3:N50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2825997-2B75-49DA-944E-931EEA5BE996}">
+  <dimension ref="B2:P67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="M32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="3"/>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+      <c r="N40" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="N41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="3"/>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="N42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="N43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="3"/>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+      <c r="O44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="P45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="P46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="3"/>
+      <c r="N47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88581CE-3DCB-4E79-9B7A-5445474C3331}">
+  <dimension ref="B4:F57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967D5CB2-94E7-4496-AC53-C957B2DBF1D6}">
+  <dimension ref="B2:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA39F9C1-1711-4D7E-AEAF-7B9FA5A52EF2}">
+  <dimension ref="B4:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
